--- a/Code/Results/Cases/Case_0_233/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_233/res_bus/vm_pu.xlsx
@@ -417,159 +417,840 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.126699414455558</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.136701843517796</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.111804366384662</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.144502723721829</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.131360129271993</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.139236031564832</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.114398302632468</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.147018765053662</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.132966790424381</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1.135577617796457</v>
+      </c>
+      <c r="D3">
+        <v>1.14561889177374</v>
+      </c>
+      <c r="E3">
+        <v>1.119765274774408</v>
+      </c>
+      <c r="F3">
+        <v>1.153634906736906</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1.139883262052801</v>
+      </c>
+      <c r="K3">
+        <v>1.147963823585371</v>
+      </c>
+      <c r="L3">
+        <v>1.122166987947648</v>
+      </c>
+      <c r="M3">
+        <v>1.15596278482839</v>
+      </c>
+      <c r="N3">
+        <v>1.141502027031353</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="C4">
+        <v>1.141179653418261</v>
+      </c>
+      <c r="D4">
+        <v>1.151245579344141</v>
+      </c>
+      <c r="E4">
+        <v>1.124784008329989</v>
+      </c>
+      <c r="F4">
+        <v>1.159398553898082</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1.14525841206699</v>
+      </c>
+      <c r="K4">
+        <v>1.153469245178676</v>
+      </c>
+      <c r="L4">
+        <v>1.127062404013834</v>
+      </c>
+      <c r="M4">
+        <v>1.161605892627791</v>
+      </c>
+      <c r="N4">
+        <v>1.146884810375102</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="C5">
+        <v>1.143502637307456</v>
+      </c>
+      <c r="D5">
+        <v>1.153578816975674</v>
+      </c>
+      <c r="E5">
+        <v>1.126864037824678</v>
+      </c>
+      <c r="F5">
+        <v>1.161788872549437</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1.147486637485559</v>
+      </c>
+      <c r="K5">
+        <v>1.155751759512122</v>
+      </c>
+      <c r="L5">
+        <v>1.129090818263878</v>
+      </c>
+      <c r="M5">
+        <v>1.163945797821359</v>
+      </c>
+      <c r="N5">
+        <v>1.149116200129345</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="C6">
+        <v>1.143890850363519</v>
+      </c>
+      <c r="D6">
+        <v>1.153968745393481</v>
+      </c>
+      <c r="E6">
+        <v>1.127211585460983</v>
+      </c>
+      <c r="F6">
+        <v>1.162188357123519</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1.147858975059122</v>
+      </c>
+      <c r="K6">
+        <v>1.156133185523213</v>
+      </c>
+      <c r="L6">
+        <v>1.129429712058236</v>
+      </c>
+      <c r="M6">
+        <v>1.164336832261385</v>
+      </c>
+      <c r="N6">
+        <v>1.149489066464971</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="C7">
+        <v>1.141210816816263</v>
+      </c>
+      <c r="D7">
+        <v>1.151276880177798</v>
+      </c>
+      <c r="E7">
+        <v>1.124811916693265</v>
+      </c>
+      <c r="F7">
+        <v>1.159430619351283</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1.145288306923714</v>
+      </c>
+      <c r="K7">
+        <v>1.153499867272574</v>
+      </c>
+      <c r="L7">
+        <v>1.127089621832438</v>
+      </c>
+      <c r="M7">
+        <v>1.161637283464489</v>
+      </c>
+      <c r="N7">
+        <v>1.14691474768595</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="C8">
+        <v>1.129730701270615</v>
+      </c>
+      <c r="D8">
+        <v>1.13974636183453</v>
+      </c>
+      <c r="E8">
+        <v>1.11452340873873</v>
+      </c>
+      <c r="F8">
+        <v>1.147620438961373</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1.134270784984261</v>
+      </c>
+      <c r="K8">
+        <v>1.14221632392152</v>
+      </c>
+      <c r="L8">
+        <v>1.117052144959028</v>
+      </c>
+      <c r="M8">
+        <v>1.150072619533852</v>
+      </c>
+      <c r="N8">
+        <v>1.135881579601616</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="C9">
+        <v>1.108305242790605</v>
+      </c>
+      <c r="D9">
+        <v>1.118228102458409</v>
+      </c>
+      <c r="E9">
+        <v>1.095285571018474</v>
+      </c>
+      <c r="F9">
+        <v>1.12559012284301</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1.113685561410511</v>
+      </c>
+      <c r="K9">
+        <v>1.12114387693127</v>
+      </c>
+      <c r="L9">
+        <v>1.098266152716889</v>
+      </c>
+      <c r="M9">
+        <v>1.128485707873114</v>
+      </c>
+      <c r="N9">
+        <v>1.115267122649234</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="C10">
+        <v>1.09305570948502</v>
+      </c>
+      <c r="D10">
+        <v>1.102913583986616</v>
+      </c>
+      <c r="E10">
+        <v>1.081568294525196</v>
+      </c>
+      <c r="F10">
+        <v>1.109918059474916</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1.099017963354937</v>
+      </c>
+      <c r="K10">
+        <v>1.106135991558836</v>
+      </c>
+      <c r="L10">
+        <v>1.084858611422646</v>
+      </c>
+      <c r="M10">
+        <v>1.113118804096221</v>
+      </c>
+      <c r="N10">
+        <v>1.100578694922023</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="C11">
+        <v>1.08618089347565</v>
+      </c>
+      <c r="D11">
+        <v>1.096009776421877</v>
+      </c>
+      <c r="E11">
+        <v>1.075378371078185</v>
+      </c>
+      <c r="F11">
+        <v>1.102854745939089</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1.092401591209085</v>
+      </c>
+      <c r="K11">
+        <v>1.099367796840161</v>
+      </c>
+      <c r="L11">
+        <v>1.078805379103241</v>
+      </c>
+      <c r="M11">
+        <v>1.106190502934302</v>
+      </c>
+      <c r="N11">
+        <v>1.093952926768816</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="C12">
+        <v>1.083582259036648</v>
+      </c>
+      <c r="D12">
+        <v>1.093400234195233</v>
+      </c>
+      <c r="E12">
+        <v>1.073037740078159</v>
+      </c>
+      <c r="F12">
+        <v>1.100185167853119</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1.089900053535825</v>
+      </c>
+      <c r="K12">
+        <v>1.096809113338057</v>
+      </c>
+      <c r="L12">
+        <v>1.076515962761017</v>
+      </c>
+      <c r="M12">
+        <v>1.103571566828484</v>
+      </c>
+      <c r="N12">
+        <v>1.091447836625129</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="C13">
+        <v>1.084141786069533</v>
+      </c>
+      <c r="D13">
+        <v>1.093962107467166</v>
+      </c>
+      <c r="E13">
+        <v>1.073541754625406</v>
+      </c>
+      <c r="F13">
+        <v>1.100759956167122</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1.090438700986232</v>
+      </c>
+      <c r="K13">
+        <v>1.097360054198962</v>
+      </c>
+      <c r="L13">
+        <v>1.077008970651448</v>
+      </c>
+      <c r="M13">
+        <v>1.104135468927142</v>
+      </c>
+      <c r="N13">
+        <v>1.091987249016699</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="C14">
+        <v>1.08596703432982</v>
+      </c>
+      <c r="D14">
+        <v>1.09579501853908</v>
+      </c>
+      <c r="E14">
+        <v>1.07518576263463</v>
+      </c>
+      <c r="F14">
+        <v>1.102635042080776</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1.092195734883304</v>
+      </c>
+      <c r="K14">
+        <v>1.099157232666009</v>
+      </c>
+      <c r="L14">
+        <v>1.078616994729932</v>
+      </c>
+      <c r="M14">
+        <v>1.105974974735817</v>
+      </c>
+      <c r="N14">
+        <v>1.09374677810344</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="C15">
+        <v>1.087085528714651</v>
+      </c>
+      <c r="D15">
+        <v>1.09691821546235</v>
+      </c>
+      <c r="E15">
+        <v>1.076193078928566</v>
+      </c>
+      <c r="F15">
+        <v>1.103784117155144</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1.093272349942973</v>
+      </c>
+      <c r="K15">
+        <v>1.100258479882233</v>
+      </c>
+      <c r="L15">
+        <v>1.07960220040189</v>
+      </c>
+      <c r="M15">
+        <v>1.107102194919339</v>
+      </c>
+      <c r="N15">
+        <v>1.094824922079983</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="C16">
+        <v>1.09350589823436</v>
+      </c>
+      <c r="D16">
+        <v>1.103365677942223</v>
+      </c>
+      <c r="E16">
+        <v>1.081973512208014</v>
+      </c>
+      <c r="F16">
+        <v>1.110380633648703</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1.099451146747983</v>
+      </c>
+      <c r="K16">
+        <v>1.106579150050997</v>
+      </c>
+      <c r="L16">
+        <v>1.085254816106918</v>
+      </c>
+      <c r="M16">
+        <v>1.113572483502706</v>
+      </c>
+      <c r="N16">
+        <v>1.101012493485175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="C17">
+        <v>1.097457694725237</v>
+      </c>
+      <c r="D17">
+        <v>1.107334233542755</v>
+      </c>
+      <c r="E17">
+        <v>1.085529883873928</v>
+      </c>
+      <c r="F17">
+        <v>1.114441376207712</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1.103253226437178</v>
+      </c>
+      <c r="K17">
+        <v>1.11046897181502</v>
+      </c>
+      <c r="L17">
+        <v>1.088731736738845</v>
+      </c>
+      <c r="M17">
+        <v>1.117554856744361</v>
+      </c>
+      <c r="N17">
+        <v>1.104819972563633</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="C18">
+        <v>1.099736810869518</v>
+      </c>
+      <c r="D18">
+        <v>1.109623043537061</v>
+      </c>
+      <c r="E18">
+        <v>1.08758039295514</v>
+      </c>
+      <c r="F18">
+        <v>1.116783511344592</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1.105445629263592</v>
+      </c>
+      <c r="K18">
+        <v>1.112712127164236</v>
+      </c>
+      <c r="L18">
+        <v>1.090736147643237</v>
+      </c>
+      <c r="M18">
+        <v>1.119851553428999</v>
+      </c>
+      <c r="N18">
+        <v>1.107015488853532</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="C19">
+        <v>1.100509656304316</v>
+      </c>
+      <c r="D19">
+        <v>1.110399180819965</v>
+      </c>
+      <c r="E19">
+        <v>1.08827562399436</v>
+      </c>
+      <c r="F19">
+        <v>1.117577757856036</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1.106189008215879</v>
+      </c>
+      <c r="K19">
+        <v>1.113472741417498</v>
+      </c>
+      <c r="L19">
+        <v>1.091415700278189</v>
+      </c>
+      <c r="M19">
+        <v>1.120630351215267</v>
+      </c>
+      <c r="N19">
+        <v>1.107759923489199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="C20">
+        <v>1.097036411926321</v>
+      </c>
+      <c r="D20">
+        <v>1.106911161150308</v>
+      </c>
+      <c r="E20">
+        <v>1.085150813037523</v>
+      </c>
+      <c r="F20">
+        <v>1.114008459725762</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1.102847942457212</v>
+      </c>
+      <c r="K20">
+        <v>1.110054318540326</v>
+      </c>
+      <c r="L20">
+        <v>1.088361164607639</v>
+      </c>
+      <c r="M20">
+        <v>1.11713031989656</v>
+      </c>
+      <c r="N20">
+        <v>1.104414113033929</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="C21">
+        <v>1.085430823676804</v>
+      </c>
+      <c r="D21">
+        <v>1.095256555311467</v>
+      </c>
+      <c r="E21">
+        <v>1.074702819862752</v>
+      </c>
+      <c r="F21">
+        <v>1.102084181906117</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1.091679580196778</v>
+      </c>
+      <c r="K21">
+        <v>1.098629277862428</v>
+      </c>
+      <c r="L21">
+        <v>1.078144635664496</v>
+      </c>
+      <c r="M21">
+        <v>1.105434577898107</v>
+      </c>
+      <c r="N21">
+        <v>1.093229890418055</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="C22">
+        <v>1.077870925960498</v>
+      </c>
+      <c r="D22">
+        <v>1.087665027472576</v>
+      </c>
+      <c r="E22">
+        <v>1.067891831379165</v>
+      </c>
+      <c r="F22">
+        <v>1.094318489550807</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1.084401020702392</v>
+      </c>
+      <c r="K22">
+        <v>1.09118493480966</v>
+      </c>
+      <c r="L22">
+        <v>1.071481765037231</v>
+      </c>
+      <c r="M22">
+        <v>1.097815459990482</v>
+      </c>
+      <c r="N22">
+        <v>1.085940994534325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="C23">
+        <v>1.081905060516284</v>
+      </c>
+      <c r="D23">
+        <v>1.091716010618964</v>
+      </c>
+      <c r="E23">
+        <v>1.071526812936184</v>
+      </c>
+      <c r="F23">
+        <v>1.09846226890256</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1.0882853547131</v>
+      </c>
+      <c r="K23">
+        <v>1.095157600437885</v>
+      </c>
+      <c r="L23">
+        <v>1.075037960984518</v>
+      </c>
+      <c r="M23">
+        <v>1.101881241633882</v>
+      </c>
+      <c r="N23">
+        <v>1.089830844744867</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="C24">
+        <v>1.097226851216465</v>
+      </c>
+      <c r="D24">
+        <v>1.107102409331652</v>
+      </c>
+      <c r="E24">
+        <v>1.085322172290678</v>
+      </c>
+      <c r="F24">
+        <v>1.114204157399339</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1.103031150681857</v>
+      </c>
+      <c r="K24">
+        <v>1.110241761656384</v>
+      </c>
+      <c r="L24">
+        <v>1.088528682910893</v>
+      </c>
+      <c r="M24">
+        <v>1.117322230334795</v>
+      </c>
+      <c r="N24">
+        <v>1.104597581435267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.114001492989594</v>
+      </c>
+      <c r="D25">
+        <v>1.123948858602841</v>
+      </c>
+      <c r="E25">
+        <v>1.100404441589317</v>
+      </c>
+      <c r="F25">
+        <v>1.131445849398017</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1.119161147016893</v>
+      </c>
+      <c r="K25">
+        <v>1.126747902623056</v>
+      </c>
+      <c r="L25">
+        <v>1.103266881293805</v>
+      </c>
+      <c r="M25">
+        <v>1.134225305131794</v>
+      </c>
+      <c r="N25">
+        <v>1.120750484215234</v>
       </c>
     </row>
   </sheetData>
